--- a/lib/files/users_1.xlsx
+++ b/lib/files/users_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="309">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -830,6 +830,18 @@
   </si>
   <si>
     <t xml:space="preserve">ficha2.mat@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Pettres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pettres@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hudson04br@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -948,7 +960,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -972,6 +984,87 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -992,7 +1085,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,17 +1094,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1022,7 +1172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,33 +1196,81 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,47 +1278,123 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1815,10 +2089,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2279,12 +2553,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="abel.s.siqueira@gmail.com"/>
     <hyperlink ref="B24" r:id="rId2" display="grapiglia@ufpr.br"/>
     <hyperlink ref="B48" r:id="rId3" display="ricardopaleari@gmail.com"/>
     <hyperlink ref="B56" r:id="rId4" display="ficha2.mat@gmail.com"/>
+    <hyperlink ref="B57" r:id="rId5" display="pettres@ufpr.br"/>
+    <hyperlink ref="B58" r:id="rId6" display="hudson04br@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2326,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>171</v>
@@ -2335,13 +2627,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F1" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>251</v>
@@ -2358,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>187</v>
@@ -2381,13 +2673,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>251</v>
@@ -2404,13 +2696,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>161</v>
@@ -2427,13 +2719,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2733,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>199</v>
@@ -2450,13 +2742,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,7 +2756,7 @@
         <v>118</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>185</v>
@@ -2473,13 +2765,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>237</v>
@@ -2496,13 +2788,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>161</v>
@@ -2519,13 +2811,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>199</v>
@@ -2542,13 +2834,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>215</v>
@@ -2565,13 +2857,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>239</v>
@@ -2588,13 +2880,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>245</v>
@@ -2611,13 +2903,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>233</v>
@@ -2634,13 +2926,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,7 +2940,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>235</v>
@@ -2659,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>257</v>
@@ -2668,19 +2960,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2980,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>203</v>
@@ -2697,19 +2989,19 @@
         <v>2</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +3009,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>257</v>
@@ -2726,19 +3018,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>195</v>
@@ -2755,19 +3047,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H19" s="9" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +3067,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>245</v>
@@ -2784,19 +3076,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +3096,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>227</v>
@@ -2813,19 +3105,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H21" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>173</v>
@@ -2842,19 +3134,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F22" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H22" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +3154,7 @@
         <v>116</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>209</v>
@@ -2871,19 +3163,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F23" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H23" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,7 +3183,7 @@
         <v>116</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>179</v>
@@ -2900,19 +3192,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F24" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H24" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>249</v>
@@ -2929,19 +3221,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H25" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>159</v>
@@ -2958,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H26" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,7 +3270,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>215</v>
@@ -2987,19 +3279,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H27" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>187</v>
@@ -3016,13 +3308,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>253</v>
@@ -3039,13 +3331,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>183</v>
@@ -3062,13 +3354,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,7 +3368,7 @@
         <v>116</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>173</v>
@@ -3085,19 +3377,19 @@
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H31" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>163</v>
@@ -3114,19 +3406,19 @@
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3426,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>213</v>
@@ -3143,13 +3435,13 @@
         <v>3</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F33" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>243</v>
@@ -3166,13 +3458,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F34" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3472,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>243</v>
@@ -3189,13 +3481,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F35" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>243</v>
@@ -3212,13 +3504,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F36" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>227</v>
@@ -3235,13 +3527,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F37" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3541,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>225</v>
@@ -3258,13 +3550,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F38" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>171</v>
@@ -3281,13 +3573,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3587,7 @@
         <v>115</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>221</v>
@@ -3304,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>177</v>
@@ -3327,13 +3619,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F41" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3633,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>163</v>
@@ -3350,13 +3642,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F42" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,7 +3656,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>207</v>
@@ -3373,13 +3665,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F43" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3679,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>237</v>
@@ -3396,13 +3688,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F44" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,7 +3702,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>167</v>
@@ -3419,13 +3711,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F45" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>225</v>
@@ -3442,19 +3734,19 @@
         <v>3</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F46" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H46" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>225</v>
@@ -3471,19 +3763,19 @@
         <v>3</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F47" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H47" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>229</v>
@@ -3500,19 +3792,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H48" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,7 +3812,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>201</v>
@@ -3529,13 +3821,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F49" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +3835,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>263</v>
@@ -3552,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F50" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,7 +3858,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>219</v>
@@ -3575,13 +3867,13 @@
         <v>2</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F51" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,7 +3881,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>219</v>
@@ -3598,13 +3890,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F52" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,7 +3904,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>159</v>
@@ -3621,13 +3913,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F53" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,7 +3927,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>247</v>
@@ -3644,13 +3936,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F54" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,7 +3950,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>211</v>
@@ -3667,13 +3959,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F55" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +3973,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>207</v>
@@ -3690,13 +3982,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F56" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +3996,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>205</v>
@@ -3713,19 +4005,19 @@
         <v>3</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F57" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H57" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,7 +4025,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>233</v>
@@ -3742,19 +4034,19 @@
         <v>3</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H58" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,7 +4054,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>167</v>
@@ -3771,13 +4063,13 @@
         <v>2</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F59" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +4077,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>217</v>
@@ -3794,13 +4086,13 @@
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F60" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,7 +4100,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>217</v>
@@ -3817,13 +4109,13 @@
         <v>3</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F61" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +4123,7 @@
         <v>78</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>189</v>
@@ -3840,13 +4132,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F62" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,7 +4146,7 @@
         <v>78</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>205</v>
@@ -3863,13 +4155,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F63" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,7 +4169,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>181</v>
@@ -3886,13 +4178,13 @@
         <v>2</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F64" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,7 +4192,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>169</v>
@@ -3909,13 +4201,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F65" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,7 +4215,7 @@
         <v>84</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>185</v>
@@ -3932,13 +4224,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F66" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,7 +4238,7 @@
         <v>84</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>181</v>
@@ -3955,13 +4247,13 @@
         <v>3</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F67" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,7 +4261,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>177</v>
@@ -3978,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,16 +4278,16 @@
         <v>88</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D69" s="10" t="n">
         <v>6</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,7 +4295,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>197</v>
@@ -4012,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,7 +4312,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>265</v>
@@ -4029,19 +4321,19 @@
         <v>3</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F71" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H71" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,7 +4341,7 @@
         <v>92</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>183</v>
@@ -4058,19 +4350,19 @@
         <v>2</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F72" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H72" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,7 +4370,7 @@
         <v>93</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>229</v>
@@ -4087,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F73" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,7 +4393,7 @@
         <v>95</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>189</v>
@@ -4110,13 +4402,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F74" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +4416,7 @@
         <v>97</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>223</v>
@@ -4133,13 +4425,13 @@
         <v>2</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F75" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +4439,7 @@
         <v>97</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>209</v>
@@ -4156,13 +4448,13 @@
         <v>3</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F76" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4462,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>223</v>
@@ -4179,13 +4471,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F77" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,22 +4485,22 @@
         <v>99</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D78" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F78" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4508,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>251</v>
@@ -4225,13 +4517,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F79" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,7 +4531,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>191</v>
@@ -4248,13 +4540,13 @@
         <v>2</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,7 +4554,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>191</v>
@@ -4271,13 +4563,13 @@
         <v>3</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F81" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4577,7 @@
         <v>101</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>191</v>
@@ -4294,13 +4586,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,7 +4600,7 @@
         <v>103</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>239</v>
@@ -4317,13 +4609,13 @@
         <v>3</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4623,7 @@
         <v>105</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>231</v>
@@ -4340,13 +4632,13 @@
         <v>5</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F84" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,7 +4646,7 @@
         <v>105</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>231</v>
@@ -4363,13 +4655,13 @@
         <v>5</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,7 +4669,7 @@
         <v>105</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>261</v>
@@ -4386,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,7 +4686,7 @@
         <v>105</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>261</v>
@@ -4403,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,7 +4703,7 @@
         <v>105</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>255</v>
@@ -4420,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4720,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>255</v>
@@ -4437,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,7 +4737,7 @@
         <v>107</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>221</v>
@@ -4454,13 +4746,13 @@
         <v>4</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,7 +4760,7 @@
         <v>107</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>221</v>
@@ -4477,13 +4769,13 @@
         <v>3</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,7 +4783,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>165</v>
@@ -4500,13 +4792,13 @@
         <v>2</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +4806,7 @@
         <v>111</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>165</v>
@@ -4523,13 +4815,13 @@
         <v>2</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,7 +4829,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>175</v>
@@ -4546,13 +4838,13 @@
         <v>2</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4852,7 @@
         <v>111</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>175</v>
@@ -4569,13 +4861,13 @@
         <v>2</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,7 +4875,7 @@
         <v>142</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>235</v>
@@ -4594,7 +4886,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>201</v>
@@ -4605,7 +4897,7 @@
         <v>26</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>201</v>
@@ -4616,7 +4908,7 @@
         <v>146</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>195</v>
@@ -4627,7 +4919,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>247</v>
@@ -4638,7 +4930,7 @@
         <v>150</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>249</v>
@@ -4649,7 +4941,7 @@
         <v>152</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>239</v>
@@ -4660,7 +4952,7 @@
         <v>153</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>237</v>
@@ -4671,7 +4963,7 @@
         <v>155</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>211</v>
@@ -4682,7 +4974,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>169</v>
@@ -4693,7 +4985,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>213</v>
@@ -4704,7 +4996,7 @@
         <v>137</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>165</v>
@@ -4715,7 +5007,7 @@
         <v>140</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>259</v>
@@ -4752,18 +5044,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/lib/files/users_1.xlsx
+++ b/lib/files/users_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="307">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -514,6 +514,12 @@
     <t xml:space="preserve">ademir.aribeiro@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficha2.mat@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adonai Schlup Sant'Anna</t>
   </si>
   <si>
@@ -538,373 +544,361 @@
     <t xml:space="preserve">aldemirsp@ufpr.br</t>
   </si>
   <si>
+    <t xml:space="preserve">Alexandre Kirilov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexandrekirilov@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Luis Trovon de Carvalho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">atrovon@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ana Gabriela Martinez</t>
   </si>
   <si>
     <t xml:space="preserve">ag.anagabriela@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Carlos Eduardo Durán Fernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cduran.ufpr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Henrique dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cahe.ufpr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Roberto Vianna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos_r2v@yahoo.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleber de Medeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleber3m@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Mano Otero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otero.ufpr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson Ribeiro Álvares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolo1rolo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Outeiral Correa Hoefel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eduardo.hoefel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elenilton Vieira Godoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evgodoy1973@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias Alfredo Gudiño Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egudino@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisângela de Campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliscamposmat@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Wegner Karas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewkaras@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando de Ávila Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favilasi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geovani Nunes Grapiglia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grapiglia@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heily Wagner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heilywagner@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higidio Portillo Oquendo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">higidiop@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hudson04br@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Alberto Ramos Flor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aramos27@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Antonio Marques Carrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrer@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Carlos Cifuentes Vasquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jccifa@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Carlos Corrêa Eidam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeca77@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José João Rossetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jjrossettoufpr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Renato Ramos Barbosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrrb.spock@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Vila Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jcvb@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurandir Ceccon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceccon@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liangzhong Hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lhu@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Madalena Gramani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.gramani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Garcia Pedroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedroso.lgp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucelina Batista dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucelina.bs@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz Antônio Ribeiro de Santana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lars29@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz Carlos Matioli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lcmatioli@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mael Sachine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maelsachine@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manuel Jesus Cruz Barreda</t>
   </si>
   <si>
     <t xml:space="preserve">barreda@ufpr.br</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos Henrique dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cahe.ufpr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Roberto Vianna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carlos_r2v@yahoo.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Antonio Marques Carrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carrer@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Carlos Cifuentes Vasquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jccifa@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleber de Medeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleber3m@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Mano Otero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otero.ufpr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Eduardo Durán Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cduran.ufpr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edson Ribeiro Álvares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolo1rolo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Outeiral Correa Hoefel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eduardo.hoefel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elenilton Vieira Godoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evgodoy1973@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elias Alfredo Gudiño Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">egudino@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elisângela de Campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliscamposmat@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth Wegner Karas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewkaras@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando de Ávila Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">favilasi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geovani Nunes Grapiglia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grapiglia@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heily Wagner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">heilywagner@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higidio Portillo Oquendo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">higidiop@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liangzhong Hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lhu@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Alberto Ramos Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aramos27@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Renato Ramos Barbosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrrb.spock@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos Vila Bravo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcvb@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurandir Ceccon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceccon@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre Kirilov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexandrekirilov@gmail.com</t>
+    <t xml:space="preserve">Marcelo Muniz Silva Alves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmunizbr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matheus Batagini Brito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matheus.bb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivier Brahic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahicolivier@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula Rogeria Lima Couto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paularlcouto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Danizete Damázio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pddamazio@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul Prado Raya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raulprado@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Pettres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pettres@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Ribeiro Santos Junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robertoufs@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Ristow Montes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ristow@ufpr.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saulo Pomponet Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saulopo@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanise Carnieri Pierin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanpierin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena Mujica Serdio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmu7ic@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuan Jin Yun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuanjy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:30 – 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Paleari da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30 – 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:30 – 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:30 – 21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:30 – 23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30 – 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:30 – 23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:30 – 22:30</t>
   </si>
   <si>
     <t xml:space="preserve">Kally Chung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chung.kally@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Madalena Gramani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l.gramani@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Garcia Pedroso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedroso.lgp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucelina Batista dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lucelina.bs@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luiz Antônio Ribeiro de Santana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lars29@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mael Sachine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maelsachine@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Muniz Silva Alves </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmunizbr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheus Batagini Brito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matheus.bb@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luiz Carlos Matioli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lcmatioli@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivier Brahic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahicolivier@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula Rogeria Lima Couto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paularlcouto@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Danizete Damázio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pddamazio@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raul Prado Raya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">raulprado@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Ribeiro Santos Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robertoufs@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Ristow Montes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ristow@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Paleari da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ricardopaleari@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José João Rossetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jjrossettoufpr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saulo Pomponet Oliveira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">saulopo@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanise Carnieri Pierin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanpierin@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre Luis Trovon de Carvalho </t>
-  </si>
-  <si>
-    <t xml:space="preserve">atrovon@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ximena Mujica Serdio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xmu7ic@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuan Jin Yun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yuanjy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Carlos Corrêa Eidam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeca77@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ficha2.mat@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Pettres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pettres@ufpr.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hudson Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hudson04br@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:30 – 09:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30 – 15:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:30 – 19:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:30 – 21:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:30 – 23:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:30 – 11:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:30 – 23:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:30 – 22:30</t>
   </si>
   <si>
     <t xml:space="preserve">18:30 – 20:30</t>
@@ -2089,10 +2083,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2127,10 +2121,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="0" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2183,7 +2177,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2207,7 +2201,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2311,10 +2305,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="0" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2362,7 +2356,7 @@
       <c r="A33" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2482,7 +2476,7 @@
       <c r="A48" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2495,10 +2489,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="0" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2543,40 +2537,25 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="0" t="n">
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="abel.s.siqueira@gmail.com"/>
-    <hyperlink ref="B24" r:id="rId2" display="grapiglia@ufpr.br"/>
-    <hyperlink ref="B48" r:id="rId3" display="ricardopaleari@gmail.com"/>
-    <hyperlink ref="B56" r:id="rId4" display="ficha2.mat@gmail.com"/>
-    <hyperlink ref="B57" r:id="rId5" display="pettres@ufpr.br"/>
-    <hyperlink ref="B58" r:id="rId6" display="hudson04br@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="ficha2.mat@gmail.com"/>
+    <hyperlink ref="B24" r:id="rId3" display="grapiglia@ufpr.br"/>
+    <hyperlink ref="B27" r:id="rId4" display="hudson04br@gmail.com"/>
+    <hyperlink ref="B50" r:id="rId5" display="pettres@ufpr.br"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2618,22 +2597,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D1" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F1" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,22 +2620,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,22 +2643,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,22 +2666,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>161</v>
@@ -2719,13 +2698,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,7 +2712,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>199</v>
@@ -2742,13 +2721,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,22 +2735,22 @@
         <v>118</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>237</v>
@@ -2788,13 +2767,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>161</v>
@@ -2811,13 +2790,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>199</v>
@@ -2834,13 +2813,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,22 +2827,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,22 +2850,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,22 +2873,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,22 +2896,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,28 +2930,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +2959,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>203</v>
@@ -2989,19 +2968,19 @@
         <v>2</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,28 +2988,28 @@
         <v>6</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>195</v>
@@ -3047,19 +3026,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H19" s="9" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,28 +3046,28 @@
         <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,28 +3075,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H21" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,28 +3104,28 @@
         <v>8</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F22" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H22" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,28 +3133,28 @@
         <v>116</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F23" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H23" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,28 +3162,28 @@
         <v>116</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F24" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H24" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,28 +3191,28 @@
         <v>8</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H25" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>159</v>
@@ -3250,19 +3229,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H26" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,28 +3249,28 @@
         <v>8</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H27" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,22 +3278,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,22 +3301,22 @@
         <v>10</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,22 +3324,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D30" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,28 +3347,28 @@
         <v>116</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="D31" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H31" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,28 +3376,28 @@
         <v>8</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D32" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,22 +3405,22 @@
         <v>8</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D33" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F33" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,22 +3428,22 @@
         <v>12</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F34" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,22 +3451,22 @@
         <v>121</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F35" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,22 +3474,22 @@
         <v>12</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D36" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F36" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,22 +3497,22 @@
         <v>14</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F37" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,22 +3520,22 @@
         <v>14</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F38" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,22 +3543,22 @@
         <v>14</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,22 +3566,22 @@
         <v>115</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D40" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,22 +3589,22 @@
         <v>14</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F41" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,22 +3612,22 @@
         <v>14</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D42" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F42" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>207</v>
@@ -3665,13 +3644,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F43" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,7 +3658,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>237</v>
@@ -3688,13 +3667,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F44" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,22 +3681,22 @@
         <v>34</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D45" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F45" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,28 +3704,28 @@
         <v>18</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D46" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F46" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H46" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,28 +3733,28 @@
         <v>6</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D47" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F47" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H47" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,28 +3762,28 @@
         <v>18</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H48" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3791,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>201</v>
@@ -3821,13 +3800,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F49" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,22 +3814,22 @@
         <v>40</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D50" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F50" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,22 +3837,22 @@
         <v>44</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F51" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,22 +3860,22 @@
         <v>44</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="D52" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F52" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3883,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>159</v>
@@ -3913,13 +3892,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F53" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,22 +3906,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D54" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F54" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +3929,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>211</v>
@@ -3959,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F55" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,7 +3952,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>207</v>
@@ -3982,13 +3961,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F56" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,7 +3975,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>205</v>
@@ -4005,19 +3984,19 @@
         <v>3</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F57" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H57" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,28 +4004,28 @@
         <v>68</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D58" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H58" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,22 +4033,22 @@
         <v>70</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D59" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F59" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,22 +4056,22 @@
         <v>74</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D60" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F60" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,22 +4079,22 @@
         <v>74</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D61" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F61" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,7 +4102,7 @@
         <v>78</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>189</v>
@@ -4132,13 +4111,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F62" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,7 +4125,7 @@
         <v>78</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>205</v>
@@ -4155,13 +4134,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F63" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,22 +4148,22 @@
         <v>82</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D64" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F64" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,22 +4171,22 @@
         <v>82</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D65" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F65" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,22 +4194,22 @@
         <v>84</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F66" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,22 +4217,22 @@
         <v>84</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D67" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F67" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,16 +4240,16 @@
         <v>86</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D68" s="10" t="n">
         <v>6</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,16 +4257,16 @@
         <v>88</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D69" s="10" t="n">
         <v>6</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,7 +4274,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>197</v>
@@ -4304,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,28 +4291,28 @@
         <v>92</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D71" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F71" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H71" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,28 +4320,28 @@
         <v>92</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D72" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F72" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H72" s="9" t="n">
         <v>6</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,22 +4349,22 @@
         <v>93</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D73" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F73" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,7 +4372,7 @@
         <v>95</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>189</v>
@@ -4402,13 +4381,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F74" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,22 +4395,22 @@
         <v>97</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D75" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F75" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,22 +4418,22 @@
         <v>97</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D76" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F76" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,22 +4441,22 @@
         <v>99</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D77" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F77" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,22 +4464,22 @@
         <v>99</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D78" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F78" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,22 +4487,22 @@
         <v>99</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D79" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F79" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4510,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>191</v>
@@ -4540,13 +4519,13 @@
         <v>2</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,7 +4533,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>191</v>
@@ -4563,13 +4542,13 @@
         <v>3</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F81" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4556,7 @@
         <v>101</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>191</v>
@@ -4586,13 +4565,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,22 +4579,22 @@
         <v>103</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D83" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,22 +4602,22 @@
         <v>105</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D84" s="10" t="n">
         <v>5</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F84" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,22 +4625,22 @@
         <v>105</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D85" s="10" t="n">
         <v>5</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,16 +4648,16 @@
         <v>105</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D86" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,16 +4665,16 @@
         <v>105</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D87" s="10" t="n">
         <v>5</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,16 +4682,16 @@
         <v>105</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D88" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,16 +4699,16 @@
         <v>105</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D89" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,22 +4716,22 @@
         <v>107</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D90" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,22 +4739,22 @@
         <v>107</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D91" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,22 +4762,22 @@
         <v>111</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D92" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,22 +4785,22 @@
         <v>111</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D93" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,22 +4808,22 @@
         <v>111</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D94" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,22 +4831,22 @@
         <v>111</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D95" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,10 +4854,10 @@
         <v>142</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,7 +4865,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>201</v>
@@ -4897,7 +4876,7 @@
         <v>26</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>201</v>
@@ -4908,7 +4887,7 @@
         <v>146</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>195</v>
@@ -4919,10 +4898,10 @@
         <v>148</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,10 +4909,10 @@
         <v>150</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,10 +4920,10 @@
         <v>152</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4931,7 @@
         <v>153</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>237</v>
@@ -4963,7 +4942,7 @@
         <v>155</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>211</v>
@@ -4974,10 +4953,10 @@
         <v>131</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,10 +4964,10 @@
         <v>133</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,10 +4975,10 @@
         <v>137</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,10 +4986,10 @@
         <v>140</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5044,18 +5023,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
